--- a/r4-core-16-narrative/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-16-narrative/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-01T16:07:40+00:00</t>
+    <t>2021-12-02T15:58:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -755,7 +755,8 @@
     <t>Patient Religion</t>
   </si>
   <si>
-    <t>HL7® Austria FHIR® Core Extension for the religion (registered in Austria) of a patient.</t>
+    <t>HL7® Austria FHIR® Core Extension for the religion (registered in Austria) of a patient.
+The extension is used to encode the religious confession of a patient (only confessions registered in Austria). Furthermore, it uses the official [http://hl7.at/fhir/HL7ATCoreProfiles/4.0.1/CodeSystem/at-core-cs-religion](HL7 AT CodeSystem) for religion and is therefore aligned with the ELGA ValueSet, respectively.</t>
   </si>
   <si>
     <t>Patient.modifierExtension</t>

--- a/r4-core-16-narrative/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-16-narrative/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-02T15:58:59+00:00</t>
+    <t>2021-12-02T16:06:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -756,7 +756,7 @@
   </si>
   <si>
     <t>HL7® Austria FHIR® Core Extension for the religion (registered in Austria) of a patient.
-The extension is used to encode the religious confession of a patient (only confessions registered in Austria). Furthermore, it uses the official [http://hl7.at/fhir/HL7ATCoreProfiles/4.0.1/CodeSystem/at-core-cs-religion](HL7 AT CodeSystem) for religion and is therefore aligned with the ELGA ValueSet, respectively.</t>
+The extension is used to encode the religious confession of a patient (only confessions registered in Austria). Furthermore, it uses the official [HL7 AT CodeSystem](https://termpub.gesundheit.gv.at:443/TermBrowser/gui/main/main.zul?loadType=CodeSystem&amp;loadName=HL7 AT ReligionAustria) for religion and is therefore aligned with the ELGA ValueSet, respectively.</t>
   </si>
   <si>
     <t>Patient.modifierExtension</t>

--- a/r4-core-16-narrative/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-16-narrative/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-02T16:06:37+00:00</t>
+    <t>2021-12-03T06:55:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-16-narrative/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-16-narrative/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-03T06:55:45+00:00</t>
+    <t>2021-12-15T15:18:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-16-narrative/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-16-narrative/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T14:08:55+00:00</t>
+    <t>2021-12-16T15:40:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -73,7 +73,7 @@
   </si>
   <si>
     <t>HL7® Austria FHIR® Core Profile for patient data in Austria.
-The HL7 AT Core Patient is based upon the core FHIR Patient Resource and designed to meet the applicable patient demographic data elements in Austria. It identifies which core elements, extensions, vocabularies and value sets SHALL be present in the resource when using this profile.</t>
+The HL7® AT Core Patient is based upon the core FHIR® Patient Resource and designed to meet the applicable patient demographic data elements in Austria. It identifies which core elements, extensions, vocabularies and value sets SHALL be present in the resource when using this profile. Note, this extension represents the common structure of Patient information within Austrian information systems.</t>
   </si>
   <si>
     <t>Purpose</t>
